--- a/app/config/tables/business/forms/verification/verification.xlsx
+++ b/app/config/tables/business/forms/verification/verification.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>comments</t>
   </si>
@@ -134,9 +134,6 @@
     <t>village</t>
   </si>
   <si>
-    <t>villages</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
@@ -155,30 +152,6 @@
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>village1</t>
-  </si>
-  <si>
-    <t>village2</t>
-  </si>
-  <si>
-    <t>village3</t>
-  </si>
-  <si>
-    <t>village4</t>
-  </si>
-  <si>
-    <t>Village 1</t>
-  </si>
-  <si>
-    <t>Village 2</t>
-  </si>
-  <si>
-    <t>Village 3</t>
-  </si>
-  <si>
-    <t>Village 4</t>
-  </si>
-  <si>
     <t>verification_date</t>
   </si>
   <si>
@@ -188,9 +161,6 @@
     <t>authorization_otc</t>
   </si>
   <si>
-    <t>village_veos</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -242,64 +212,7 @@
     <t>secondary_phone_number</t>
   </si>
   <si>
-    <t>subvillages</t>
-  </si>
-  <si>
-    <t>subvillage1</t>
-  </si>
-  <si>
-    <t>subvillage2</t>
-  </si>
-  <si>
-    <t>subvillage3</t>
-  </si>
-  <si>
-    <t>subvillage4</t>
-  </si>
-  <si>
-    <t>Subvillage 1</t>
-  </si>
-  <si>
-    <t>Subvillage 2</t>
-  </si>
-  <si>
-    <t>Subvillage 3</t>
-  </si>
-  <si>
-    <t>Subvillage 4</t>
-  </si>
-  <si>
     <t>subvillage</t>
-  </si>
-  <si>
-    <t>veo1</t>
-  </si>
-  <si>
-    <t>VEO1</t>
-  </si>
-  <si>
-    <t>veo2</t>
-  </si>
-  <si>
-    <t>veo3</t>
-  </si>
-  <si>
-    <t>veo4</t>
-  </si>
-  <si>
-    <t>veo5</t>
-  </si>
-  <si>
-    <t>VEO2</t>
-  </si>
-  <si>
-    <t>VEO3</t>
-  </si>
-  <si>
-    <t>VEO4</t>
-  </si>
-  <si>
-    <t>VEO5</t>
   </si>
   <si>
     <t>verification_agent</t>
@@ -909,10 +822,10 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -920,24 +833,24 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -980,223 +893,80 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -1266,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1077,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,23 +1125,23 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1181,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,15 +1189,15 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1435,7 +1205,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1443,7 +1213,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1451,15 +1221,15 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F21" s="7"/>
     </row>
@@ -1468,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/verification/verification.xlsx
+++ b/app/config/tables/business/forms/verification/verification.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\eKichabi\app-designer\app\config\tables\business\forms\verification\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="settings" sheetId="5" r:id="rId3"/>
     <sheet name="model" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>comments</t>
   </si>
@@ -168,12 +163,6 @@
   </si>
   <si>
     <t>select_one_integer</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>integer</t>
@@ -251,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -340,10 +329,10 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -762,21 +751,21 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="53.5703125" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="53.5" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="1023" width="11.28515625" customWidth="1"/>
+    <col min="11" max="1023" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="D2" t="s">
         <v>24</v>
       </c>
@@ -825,32 +814,32 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="D4" t="s">
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -869,18 +858,18 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="1024" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="1024" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.25" customHeight="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -891,9 +880,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -902,9 +891,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -913,9 +902,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -924,54 +913,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" customHeight="1">
       <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="19" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -988,15 +977,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="1022" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="1022" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1007,15 +996,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1023,7 +1012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1031,12 +1020,12 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1058,37 +1047,37 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1104,7 +1093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1112,7 +1101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1120,31 +1109,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1168,15 +1157,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1184,23 +1173,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1216,32 +1205,37 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/business/forms/verification/verification.xlsx
+++ b/app/config/tables/business/forms/verification/verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5540" yWindow="880" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>comments</t>
   </si>
@@ -213,9 +213,6 @@
     <t>authorization_veo</t>
   </si>
   <si>
-    <t>true_false_01</t>
-  </si>
-  <si>
     <t>sector_type_list</t>
   </si>
   <si>
@@ -235,6 +232,12 @@
   </si>
   <si>
     <t>Verification</t>
+  </si>
+  <si>
+    <t>true_false_unsure</t>
+  </si>
+  <si>
+    <t>Unsure</t>
   </si>
 </sst>
 </file>
@@ -327,12 +330,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -814,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -825,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -833,13 +836,13 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -855,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -882,7 +885,7 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -893,7 +896,7 @@
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -904,7 +907,7 @@
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -915,46 +918,60 @@
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1">
       <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="9">
+        <v>69</v>
+      </c>
+      <c r="B6" s="8">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="9">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19" customHeight="1"/>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    <row r="8" spans="1:3" ht="19" customHeight="1">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19" customHeight="1">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1001,7 +1018,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.75" customHeight="1">
@@ -1025,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1054,10 +1071,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1214,13 +1231,13 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
